--- a/biology/Histoire de la zoologie et de la botanique/Brid/Brid..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Brid/Brid..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel Elisée Bridel-Brideri, né le 28 novembre 1761 à Crassier et mort le 7 janvier 1828, est un bryologiste suisse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il effectue ses études à l’Université de Lausanne, et est employé à l’âge de 19 ans comme précepteur des princes de Saxe-Gotha-Altenbourg. En 1804 il était nommé conseiller privé de cette principauté et devient par la suite bibliothécaire de Gotha.
 Il s'est d'abord fait connaître par une somme sur les mousses, intitulée Muscologia recentiorum (1797-1803), qu'il augmenta au cours des années suivantes. De là il tira une Myologia universa (1826-27) en deux volumes, édition améliorée de son recueil précédent : il y introduisit une nouvelle systématique des mousses, aujourd'hui tombée en désuétude.
